--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765730.4060955476</v>
+        <v>763348.4632508394</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>24.62149822509145</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>91.4457467572165</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414535</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.3013276789167</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.36917500887014</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143.3019293755532</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>133.6306410862978</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778477</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.1061996486185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.82926262591542</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>378.0714415442845</v>
+        <v>378.0714415442812</v>
       </c>
       <c r="H11" t="n">
         <v>283.4123557451817</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2771918447863</v>
+        <v>84.27719184478636</v>
       </c>
       <c r="T11" t="n">
         <v>199.1326264236712</v>
@@ -1464,7 +1464,7 @@
         <v>134.4145726238936</v>
       </c>
       <c r="H12" t="n">
-        <v>83.94800618572391</v>
+        <v>83.94800618572393</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.2793109108216</v>
+        <v>117.2793109108217</v>
       </c>
       <c r="T12" t="n">
         <v>188.3590268016972</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>54.27083128831163</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.88389128405879</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.2234294808677</v>
       </c>
       <c r="T13" t="n">
         <v>217.453784930958</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1850914267378</v>
+        <v>92.34860195012145</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>138.0856443753519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>216.6856552554194</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695497</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>165.838133400916</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>37.11414892142401</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520959</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187872</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503984</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012518</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>38.05096575280442</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890352</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>171.3759287839196</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>225.3292088092209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701363</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.4311206861376</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.74238375877715</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520901</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>11.76284745947859</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.026286001647</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833964</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.4849283993765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>143.9002723490406</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>28.87857325623899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428077</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>62.84300698292816</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140705</v>
+        <v>1303.228924202404</v>
       </c>
       <c r="D2" t="n">
-        <v>1295.236214140705</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>909.4479615424607</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>498.4620567528531</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,16 +4422,16 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4486,49 +4486,49 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450105</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145366</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>218.3316393401801</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>218.3316393401801</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W4" t="n">
-        <v>218.3316393401801</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y4" t="n">
         <v>66.5121164321834</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>696.0761030339979</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>696.0761030339979</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V7" t="n">
-        <v>441.3916148281111</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>441.3916148281111</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.0565485757129</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="C10" t="n">
-        <v>662.120365647806</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>512.0037262354703</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>364.0906326530771</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>217.2006851551668</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>185.4137665647679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2285.349844768394</v>
+        <v>2285.349844768391</v>
       </c>
       <c r="C11" t="n">
-        <v>1916.387327827983</v>
+        <v>1916.387327827979</v>
       </c>
       <c r="D11" t="n">
-        <v>1558.121629221233</v>
+        <v>1558.121629221229</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.333376622988</v>
+        <v>1172.333376622985</v>
       </c>
       <c r="F11" t="n">
-        <v>761.3474718333812</v>
+        <v>761.3474718333775</v>
       </c>
       <c r="G11" t="n">
         <v>379.4571268391547</v>
       </c>
       <c r="H11" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="I11" t="n">
-        <v>93.74378221724146</v>
+        <v>93.74378221724055</v>
       </c>
       <c r="J11" t="n">
-        <v>374.4763833189081</v>
+        <v>374.4763833189072</v>
       </c>
       <c r="K11" t="n">
-        <v>845.9602981967776</v>
+        <v>845.9602981967764</v>
       </c>
       <c r="L11" t="n">
         <v>1467.77954792036</v>
       </c>
       <c r="M11" t="n">
-        <v>2191.342712424495</v>
+        <v>2191.342712424493</v>
       </c>
       <c r="N11" t="n">
-        <v>2931.227693771138</v>
+        <v>2931.227693771135</v>
       </c>
       <c r="O11" t="n">
-        <v>3616.54483974137</v>
+        <v>3616.544839741367</v>
       </c>
       <c r="P11" t="n">
-        <v>4166.946167595471</v>
+        <v>4166.946167595466</v>
       </c>
       <c r="Q11" t="n">
-        <v>4532.101896191502</v>
+        <v>4532.101896191498</v>
       </c>
       <c r="R11" t="n">
-        <v>4659.101001291996</v>
+        <v>4659.101001291992</v>
       </c>
       <c r="S11" t="n">
-        <v>4573.9725246811</v>
+        <v>4573.972524681097</v>
       </c>
       <c r="T11" t="n">
-        <v>4372.828457586483</v>
+        <v>4372.828457586479</v>
       </c>
       <c r="U11" t="n">
-        <v>4119.386317683093</v>
+        <v>4119.386317683089</v>
       </c>
       <c r="V11" t="n">
-        <v>3788.323430339522</v>
+        <v>3788.323430339518</v>
       </c>
       <c r="W11" t="n">
-        <v>3435.554775069408</v>
+        <v>3435.554775069404</v>
       </c>
       <c r="X11" t="n">
-        <v>3062.089016808328</v>
+        <v>3062.089016808324</v>
       </c>
       <c r="Y11" t="n">
-        <v>2671.949684832516</v>
+        <v>2671.949684832513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.9097333706449</v>
+        <v>942.9097333706446</v>
       </c>
       <c r="C12" t="n">
-        <v>768.4567040895179</v>
+        <v>768.4567040895176</v>
       </c>
       <c r="D12" t="n">
-        <v>619.5222944282666</v>
+        <v>619.5222944282664</v>
       </c>
       <c r="E12" t="n">
-        <v>460.284839422811</v>
+        <v>460.2848394228109</v>
       </c>
       <c r="F12" t="n">
-        <v>313.750281449696</v>
+        <v>313.7502814496959</v>
       </c>
       <c r="G12" t="n">
         <v>177.9779858700055</v>
       </c>
       <c r="H12" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="I12" t="n">
-        <v>93.18202002583992</v>
+        <v>94.48947999821894</v>
       </c>
       <c r="J12" t="n">
-        <v>93.18202002583992</v>
+        <v>242.874047046527</v>
       </c>
       <c r="K12" t="n">
-        <v>93.18202002583992</v>
+        <v>574.6417312031193</v>
       </c>
       <c r="L12" t="n">
-        <v>585.6071552047364</v>
+        <v>646.3244468073983</v>
       </c>
       <c r="M12" t="n">
-        <v>727.3970561488728</v>
+        <v>1240.318221540312</v>
       </c>
       <c r="N12" t="n">
-        <v>1351.520723531075</v>
+        <v>1864.441888922514</v>
       </c>
       <c r="O12" t="n">
-        <v>1900.252151531464</v>
+        <v>1864.441888922514</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.324433275741</v>
+        <v>2285.514170666791</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.880906112863</v>
+        <v>2517.070643503913</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.880906112863</v>
+        <v>2552.880906112862</v>
       </c>
       <c r="S12" t="n">
         <v>2434.416955697891</v>
@@ -5157,10 +5157,10 @@
         <v>1780.974226089401</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.7368693612</v>
+        <v>1526.736869361199</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.885369155667</v>
+        <v>1318.885369155666</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.125070390713</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.0010415291851</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="C13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="D13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="E13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="F13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="G13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="H13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="I13" t="n">
-        <v>93.18202002583992</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="J13" t="n">
-        <v>139.3263739496209</v>
+        <v>139.3263739496207</v>
       </c>
       <c r="K13" t="n">
-        <v>294.0381608310811</v>
+        <v>294.0381608310809</v>
       </c>
       <c r="L13" t="n">
-        <v>521.9217803376262</v>
+        <v>521.9217803376258</v>
       </c>
       <c r="M13" t="n">
-        <v>765.4513884802965</v>
+        <v>765.4513884802959</v>
       </c>
       <c r="N13" t="n">
         <v>1011.04793276272</v>
       </c>
       <c r="O13" t="n">
-        <v>1217.583003442507</v>
+        <v>1217.583003442506</v>
       </c>
       <c r="P13" t="n">
-        <v>1375.247465310591</v>
+        <v>1375.24746531059</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.818388405096</v>
+        <v>1428.818388405095</v>
       </c>
       <c r="R13" t="n">
-        <v>1428.818388405096</v>
+        <v>1361.258902259581</v>
       </c>
       <c r="S13" t="n">
-        <v>1428.818388405096</v>
+        <v>1178.204933086987</v>
       </c>
       <c r="T13" t="n">
-        <v>1209.168100596048</v>
+        <v>958.5546452779386</v>
       </c>
       <c r="U13" t="n">
-        <v>920.0922506700499</v>
+        <v>865.2732291667047</v>
       </c>
       <c r="V13" t="n">
-        <v>665.4077624641631</v>
+        <v>610.5887409608179</v>
       </c>
       <c r="W13" t="n">
-        <v>375.9905924272024</v>
+        <v>321.1715709238572</v>
       </c>
       <c r="X13" t="n">
-        <v>148.0010415291851</v>
+        <v>93.18202002583985</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.0010415291851</v>
+        <v>93.18202002583985</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382.418441703684</v>
+        <v>93.81666304797093</v>
       </c>
       <c r="C16" t="n">
-        <v>382.418441703684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>382.418441703684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>382.418441703684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,16 +5434,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131321</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629333</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936168</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
@@ -5455,31 +5455,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309952</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332893</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1081.473627468902</v>
+        <v>749.024015331996</v>
       </c>
       <c r="V16" t="n">
-        <v>1081.473627468902</v>
+        <v>494.3395271261091</v>
       </c>
       <c r="W16" t="n">
-        <v>792.0564574319411</v>
+        <v>275.4651278782106</v>
       </c>
       <c r="X16" t="n">
-        <v>564.0669065339238</v>
+        <v>275.4651278782106</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.0669065339238</v>
+        <v>275.4651278782106</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407.9027098310024</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936168</v>
+        <v>771.599514493617</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
         <v>1386.046835377027</v>
@@ -5695,28 +5695,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1373.509837562355</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>1153.908372585296</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>864.8331459294939</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>697.319879867963</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W19" t="n">
-        <v>407.9027098310024</v>
+        <v>711.5349760174273</v>
       </c>
       <c r="X19" t="n">
-        <v>407.9027098310024</v>
+        <v>483.54542511941</v>
       </c>
       <c r="Y19" t="n">
-        <v>407.9027098310024</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356193</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232835</v>
+        <v>363.7369613277372</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>215.823867745344</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>215.823867745344</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.91737983266</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233312</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954243</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830886</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830886</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2091.001250463528</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1801.926023807726</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1547.241535601839</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.824365564879</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1029.834814666861</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>809.0422355233312</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6215,46 +6215,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656162</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377094</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253735</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1643.635426776347</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6443,58 +6443,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400774</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892234</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892234</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>416.6057892068303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>416.6057892068303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>249.4096899217103</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>107.6978587639084</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473702</v>
+        <v>695.5020655703171</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816166</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537098</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441374</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,19 +6859,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611856</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611856</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811329</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851674</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572605</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572605</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E40" t="n">
-        <v>527.7722521572605</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F40" t="n">
-        <v>380.8823046593501</v>
+        <v>261.8464821474268</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.6503828623068</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.6503828623068</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956955</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154071</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2383.48529874902</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2200.630464403924</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1981.028999426865</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1691.953772771063</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.4871545236284</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>31.75711592734168</v>
+        <v>31.7571159273449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>112.9759898103162</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>140.3952899576898</v>
       </c>
       <c r="I13" t="n">
-        <v>81.60602965673451</v>
+        <v>81.60602965673455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.88389128405873</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.2234294808677</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>193.8364894766164</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,22 +23701,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>148.0988300138923</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>69.83734308117155</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>86.29950992291199</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>249.408849415167</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.7370056418704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>179.3544845744838</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.02952154336867</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459233</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>26.80843451460714</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124902</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>67.52345255978838</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.6711151870906</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822953</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.09972495271828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>21.62386594322828</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237394</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>257.644425080352</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.3683537222884</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.532239727193527</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956006.8200867752</v>
+        <v>956006.8200867749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959462.0866949382</v>
+        <v>959462.0866949381</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1003393.239780553</v>
+        <v>1003393.239780554</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1003393.239780554</v>
+        <v>1003393.239780553</v>
       </c>
     </row>
     <row r="14">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>409717.2086086178</v>
+        <v>409717.2086086177</v>
       </c>
       <c r="F2" t="n">
         <v>411198.0371549734</v>
       </c>
       <c r="G2" t="n">
-        <v>411198.0371549734</v>
+        <v>411198.0371549733</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
@@ -26341,16 +26341,16 @@
         <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="M2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318003.9118900028</v>
+        <v>318003.911890002</v>
       </c>
       <c r="F3" t="n">
-        <v>7231.652632333087</v>
+        <v>7231.652632333888</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83078.08318941966</v>
+        <v>83078.08318941951</v>
       </c>
       <c r="N3" t="n">
-        <v>1943.015143521557</v>
+        <v>1943.015143521568</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>757.2631159393604</v>
+        <v>757.2631159393597</v>
       </c>
       <c r="F4" t="n">
         <v>761.3882086835451</v>
@@ -26439,22 +26439,22 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687964</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>100503.4450505762</v>
+        <v>100503.4450505761</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1099228.50121429</v>
       </c>
       <c r="C6" t="n">
-        <v>229516.2445133026</v>
+        <v>229516.2445133029</v>
       </c>
       <c r="D6" t="n">
         <v>229516.244513303</v>
       </c>
       <c r="E6" t="n">
-        <v>-9547.41144790058</v>
+        <v>-9648.981545852814</v>
       </c>
       <c r="F6" t="n">
-        <v>302082.4664900496</v>
+        <v>301987.9479566024</v>
       </c>
       <c r="G6" t="n">
-        <v>309314.1191223827</v>
+        <v>309219.6005889361</v>
       </c>
       <c r="H6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810307</v>
       </c>
       <c r="I6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810306</v>
       </c>
       <c r="J6" t="n">
-        <v>89661.59260918894</v>
+        <v>89626.85468375318</v>
       </c>
       <c r="K6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810308</v>
       </c>
       <c r="L6" t="n">
-        <v>307192.7950064666</v>
+        <v>307158.0570810306</v>
       </c>
       <c r="M6" t="n">
-        <v>224114.7118170466</v>
+        <v>224079.9738916113</v>
       </c>
       <c r="N6" t="n">
-        <v>305249.7798629449</v>
+        <v>305215.041937509</v>
       </c>
       <c r="O6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810308</v>
       </c>
       <c r="P6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810308</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1164.775250322999</v>
+        <v>1164.775250322998</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.92558522954</v>
+        <v>271.9255852295394</v>
       </c>
       <c r="F3" t="n">
-        <v>6.273214518835402</v>
+        <v>6.273214518836085</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.3737949207061</v>
+        <v>333.3737949207053</v>
       </c>
       <c r="F4" t="n">
-        <v>7.933037776649371</v>
+        <v>7.933037776650281</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.3737949207061</v>
+        <v>333.3737949207056</v>
       </c>
       <c r="N4" t="n">
-        <v>7.933037776649371</v>
+        <v>7.933037776650053</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.3737949207061</v>
+        <v>333.3737949207053</v>
       </c>
       <c r="N4" t="n">
-        <v>7.933037776649371</v>
+        <v>7.933037776650281</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.0615433955915</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>319.4759788962369</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.4083277101204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2154783432246</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.4319122879273</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>85.9183081898714</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.340480380167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,23 +27850,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228725</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.1317390074351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>49.53418746736922</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>113.1965456331128</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.256356658357846e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.835332217429823e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.051974587842129e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-3.489049049676396e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.935385185447558e-12</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4.713266813875332e-12</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-5.924074411001094e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.469866518579405e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.145839061995503e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.474180043508894</v>
+        <v>5.474180043508891</v>
       </c>
       <c r="H11" t="n">
-        <v>56.06244637058547</v>
+        <v>56.06244637058544</v>
       </c>
       <c r="I11" t="n">
-        <v>211.0433261273768</v>
+        <v>211.0433261273767</v>
       </c>
       <c r="J11" t="n">
-        <v>464.6141884677634</v>
+        <v>464.6141884677631</v>
       </c>
       <c r="K11" t="n">
-        <v>696.336229709495</v>
+        <v>696.3362297094947</v>
       </c>
       <c r="L11" t="n">
-        <v>863.8666672160305</v>
+        <v>863.86666721603</v>
       </c>
       <c r="M11" t="n">
-        <v>961.2181165647818</v>
+        <v>961.2181165647812</v>
       </c>
       <c r="N11" t="n">
-        <v>976.7716306134015</v>
+        <v>976.7716306134009</v>
       </c>
       <c r="O11" t="n">
-        <v>922.3377528057598</v>
+        <v>922.3377528057594</v>
       </c>
       <c r="P11" t="n">
-        <v>787.1939329816339</v>
+        <v>787.1939329816336</v>
       </c>
       <c r="Q11" t="n">
-        <v>591.1498601734714</v>
+        <v>591.1498601734712</v>
       </c>
       <c r="R11" t="n">
-        <v>343.8674621580658</v>
+        <v>343.8674621580657</v>
       </c>
       <c r="S11" t="n">
         <v>124.742877741459</v>
       </c>
       <c r="T11" t="n">
-        <v>23.96322314046019</v>
+        <v>23.96322314046018</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4379344034807114</v>
+        <v>0.4379344034807112</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.928944539317049</v>
+        <v>2.928944539317047</v>
       </c>
       <c r="H12" t="n">
-        <v>28.28743805077255</v>
+        <v>28.28743805077254</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.8430466387668</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>276.7210277255637</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>472.9603118598058</v>
       </c>
       <c r="L12" t="n">
-        <v>635.9535062232039</v>
+        <v>210.9611632185398</v>
       </c>
       <c r="M12" t="n">
-        <v>285.3561560878127</v>
+        <v>742.1277457734465</v>
       </c>
       <c r="N12" t="n">
-        <v>761.7696589340425</v>
+        <v>761.769658934042</v>
       </c>
       <c r="O12" t="n">
-        <v>696.8704141418067</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>559.2999445297618</v>
+        <v>559.2999445297614</v>
       </c>
       <c r="Q12" t="n">
-        <v>373.8772011942254</v>
+        <v>373.8772011942252</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.8514863972462</v>
       </c>
       <c r="S12" t="n">
-        <v>54.40386019301619</v>
+        <v>54.40386019301616</v>
       </c>
       <c r="T12" t="n">
         <v>11.80570189312441</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1926937196919112</v>
+        <v>0.1926937196919111</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.455528712139544</v>
+        <v>2.455528712139543</v>
       </c>
       <c r="H13" t="n">
-        <v>21.83188254974978</v>
+        <v>21.83188254974977</v>
       </c>
       <c r="I13" t="n">
-        <v>73.84444527052378</v>
+        <v>73.84444527052374</v>
       </c>
       <c r="J13" t="n">
-        <v>173.6058799482658</v>
+        <v>173.6058799482657</v>
       </c>
       <c r="K13" t="n">
-        <v>285.2877903740306</v>
+        <v>285.2877903740305</v>
       </c>
       <c r="L13" t="n">
-        <v>365.0701505302738</v>
+        <v>365.0701505302736</v>
       </c>
       <c r="M13" t="n">
-        <v>384.9152871220196</v>
+        <v>384.9152871220194</v>
       </c>
       <c r="N13" t="n">
-        <v>375.762861922227</v>
+        <v>375.7628619222269</v>
       </c>
       <c r="O13" t="n">
-        <v>347.0778219667786</v>
+        <v>347.0778219667785</v>
       </c>
       <c r="P13" t="n">
-        <v>296.9850362391317</v>
+        <v>296.9850362391315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.6170451592486</v>
+        <v>205.6170451592485</v>
       </c>
       <c r="R13" t="n">
-        <v>110.4095000931108</v>
+        <v>110.4095000931107</v>
       </c>
       <c r="S13" t="n">
-        <v>42.79316855610459</v>
+        <v>42.79316855610457</v>
       </c>
       <c r="T13" t="n">
-        <v>10.49180449732351</v>
+        <v>10.4918044973235</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1339379297530662</v>
+        <v>0.1339379297530661</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>673.7140351260975</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>698.850866879865</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5674365569709323</v>
+        <v>0.5674365569708186</v>
       </c>
       <c r="J11" t="n">
-        <v>283.5682839410771</v>
+        <v>283.5682839410769</v>
       </c>
       <c r="K11" t="n">
-        <v>476.2463786645145</v>
+        <v>476.2463786645141</v>
       </c>
       <c r="L11" t="n">
-        <v>628.1002522460433</v>
+        <v>628.1002522460428</v>
       </c>
       <c r="M11" t="n">
-        <v>730.8718833375091</v>
+        <v>730.8718833375085</v>
       </c>
       <c r="N11" t="n">
-        <v>747.3585670168106</v>
+        <v>747.35856701681</v>
       </c>
       <c r="O11" t="n">
-        <v>692.239541384073</v>
+        <v>692.2395413840726</v>
       </c>
       <c r="P11" t="n">
-        <v>555.9609372263644</v>
+        <v>555.960937226364</v>
       </c>
       <c r="Q11" t="n">
-        <v>368.8441702990219</v>
+        <v>368.8441702990217</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2819243439337</v>
+        <v>128.2819243439336</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.320666638766767</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.883401058897</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>335.1188728854468</v>
       </c>
       <c r="L12" t="n">
-        <v>497.3991264433297</v>
+        <v>72.40678343866566</v>
       </c>
       <c r="M12" t="n">
-        <v>143.2221221657944</v>
+        <v>599.9937118514281</v>
       </c>
       <c r="N12" t="n">
-        <v>630.4279468507092</v>
+        <v>630.4279468507087</v>
       </c>
       <c r="O12" t="n">
-        <v>554.2741696973623</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>425.3255371154315</v>
+        <v>425.3255371154312</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.8954271082039</v>
+        <v>233.8954271082037</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.17198243328227</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.61045850886966</v>
+        <v>46.61045850886957</v>
       </c>
       <c r="K13" t="n">
-        <v>156.2745322034953</v>
+        <v>156.2745322034951</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1854742490355</v>
+        <v>230.1854742490353</v>
       </c>
       <c r="M13" t="n">
-        <v>245.9895031744146</v>
+        <v>245.9895031744144</v>
       </c>
       <c r="N13" t="n">
-        <v>248.0773174569939</v>
+        <v>248.0773174569937</v>
       </c>
       <c r="O13" t="n">
-        <v>208.6212835149358</v>
+        <v>208.6212835149357</v>
       </c>
       <c r="P13" t="n">
-        <v>159.257032189984</v>
+        <v>159.2570321899839</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.11204352980275</v>
+        <v>54.11204352980263</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>531.5800012040792</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>462.2005856280628</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>320.8355783388566</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999005</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>347.2162484813126</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>556.7168329578467</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
